--- a/Proyecto_DMD/Excel/Excel_ordenados/excel_2001.xlsx
+++ b/Proyecto_DMD/Excel/Excel_ordenados/excel_2001.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="D3" s="0" t="inlineStr">
         <is>
-          <t>33378.800000000003</t>
+          <t>33378.8</t>
         </is>
       </c>
       <c r="E3" s="0" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
       <c r="D5" s="0" t="inlineStr">
         <is>
-          <t>10190.879999999999</t>
+          <t>10190.88</t>
         </is>
       </c>
       <c r="E5" s="0" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="D13" s="0" t="inlineStr">
         <is>
-          <t>121938.24000000001</t>
+          <t>121938.24</t>
         </is>
       </c>
       <c r="E13" s="0" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="D20" s="0" t="inlineStr">
         <is>
-          <t>476.98000000000002</t>
+          <t>476.98</t>
         </is>
       </c>
       <c r="E20" s="0" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="D22" s="0" t="inlineStr">
         <is>
-          <t>307.19999999999999</t>
+          <t>307.2</t>
         </is>
       </c>
       <c r="E22" s="0" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="D32" s="0" t="inlineStr">
         <is>
-          <t>39.979999999999997</t>
+          <t>39.98</t>
         </is>
       </c>
       <c r="E32" s="0" t="inlineStr">
@@ -1306,7 +1306,7 @@
       </c>
       <c r="D35" s="0" t="inlineStr">
         <is>
-          <t>2442.0100000000002</t>
+          <t>2442.01</t>
         </is>
       </c>
       <c r="E35" s="0" t="inlineStr">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="D39" s="0" t="inlineStr">
         <is>
-          <t>11002.370000000001</t>
+          <t>11002.37</t>
         </is>
       </c>
       <c r="E39" s="0" t="inlineStr">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="D40" s="0" t="inlineStr">
         <is>
-          <t>46784.309999999998</t>
+          <t>46784.31</t>
         </is>
       </c>
       <c r="E40" s="0" t="inlineStr">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="D43" s="0" t="inlineStr">
         <is>
-          <t>11.199999999999999</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="E43" s="0" t="inlineStr">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="D44" s="0" t="inlineStr">
         <is>
-          <t>91.340000000000003</t>
+          <t>91.34</t>
         </is>
       </c>
       <c r="E44" s="0" t="inlineStr">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="D46" s="0" t="inlineStr">
         <is>
-          <t>339.80000000000001</t>
+          <t>339.8</t>
         </is>
       </c>
       <c r="E46" s="0" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="D48" s="0" t="inlineStr">
         <is>
-          <t>4.7800000000000002</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="E48" s="0" t="inlineStr">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="D52" s="0" t="inlineStr">
         <is>
-          <t>26.969999999999999</t>
+          <t>26.97</t>
         </is>
       </c>
       <c r="E52" s="0" t="inlineStr">
@@ -1819,7 +1819,7 @@
       </c>
       <c r="D54" s="0" t="inlineStr">
         <is>
-          <t>91.370000000000005</t>
+          <t>91.37</t>
         </is>
       </c>
       <c r="E54" s="0" t="inlineStr">
@@ -1873,7 +1873,7 @@
       </c>
       <c r="D56" s="0" t="inlineStr">
         <is>
-          <t>271.54000000000002</t>
+          <t>271.54</t>
         </is>
       </c>
       <c r="E56" s="0" t="inlineStr">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="D58" s="0" t="inlineStr">
         <is>
-          <t>7131.4099999999999</t>
+          <t>7131.41</t>
         </is>
       </c>
       <c r="E58" s="0" t="inlineStr">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="D59" s="0" t="inlineStr">
         <is>
-          <t>3013.8000000000002</t>
+          <t>3013.8</t>
         </is>
       </c>
       <c r="E59" s="0" t="inlineStr">
@@ -1981,7 +1981,7 @@
       </c>
       <c r="D60" s="0" t="inlineStr">
         <is>
-          <t>531.67999999999995</t>
+          <t>531.68</t>
         </is>
       </c>
       <c r="E60" s="0" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="D61" s="0" t="inlineStr">
         <is>
-          <t>5001.2700000000004</t>
+          <t>5001.27</t>
         </is>
       </c>
       <c r="E61" s="0" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="D64" s="0" t="inlineStr">
         <is>
-          <t>157.65000000000001</t>
+          <t>157.65</t>
         </is>
       </c>
       <c r="E64" s="0" t="inlineStr">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="D68" s="0" t="inlineStr">
         <is>
-          <t>318839.28000000003</t>
+          <t>318839.28</t>
         </is>
       </c>
       <c r="E68" s="0" t="inlineStr">
@@ -2224,7 +2224,7 @@
       </c>
       <c r="D69" s="0" t="inlineStr">
         <is>
-          <t>1885.5699999999999</t>
+          <t>1885.57</t>
         </is>
       </c>
       <c r="E69" s="0" t="inlineStr">
@@ -2251,7 +2251,7 @@
       </c>
       <c r="D70" s="0" t="inlineStr">
         <is>
-          <t>52.490000000000002</t>
+          <t>52.49</t>
         </is>
       </c>
       <c r="E70" s="0" t="inlineStr">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="D75" s="0" t="inlineStr">
         <is>
-          <t>10587.709999999999</t>
+          <t>10587.71</t>
         </is>
       </c>
       <c r="E75" s="0" t="inlineStr">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="D76" s="0" t="inlineStr">
         <is>
-          <t>1215.6700000000001</t>
+          <t>1215.67</t>
         </is>
       </c>
       <c r="E76" s="0" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="D77" s="0" t="inlineStr">
         <is>
-          <t>9613.5100000000002</t>
+          <t>9613.51</t>
         </is>
       </c>
       <c r="E77" s="0" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="D80" s="0" t="inlineStr">
         <is>
-          <t>2746.3400000000001</t>
+          <t>2746.34</t>
         </is>
       </c>
       <c r="E80" s="0" t="inlineStr">
@@ -2575,7 +2575,7 @@
       </c>
       <c r="D82" s="0" t="inlineStr">
         <is>
-          <t>3389.8000000000002</t>
+          <t>3389.8</t>
         </is>
       </c>
       <c r="E82" s="0" t="inlineStr">
@@ -2602,7 +2602,7 @@
       </c>
       <c r="D83" s="0" t="inlineStr">
         <is>
-          <t>242895.26000000001</t>
+          <t>242895.26</t>
         </is>
       </c>
       <c r="E83" s="0" t="inlineStr">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="D84" s="0" t="inlineStr">
         <is>
-          <t>7460.9300000000003</t>
+          <t>7460.93</t>
         </is>
       </c>
       <c r="E84" s="0" t="inlineStr">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="D87" s="0" t="inlineStr">
         <is>
-          <t>1731.3900000000001</t>
+          <t>1731.39</t>
         </is>
       </c>
       <c r="E87" s="0" t="inlineStr">
@@ -2845,7 +2845,7 @@
       </c>
       <c r="D92" s="0" t="inlineStr">
         <is>
-          <t>39.560000000000002</t>
+          <t>39.56</t>
         </is>
       </c>
       <c r="E92" s="0" t="inlineStr">
@@ -2980,7 +2980,7 @@
       </c>
       <c r="D97" s="0" t="inlineStr">
         <is>
-          <t>3.7400000000000002</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="E97" s="0" t="inlineStr">
@@ -3115,7 +3115,7 @@
       </c>
       <c r="D102" s="0" t="inlineStr">
         <is>
-          <t>262.73000000000002</t>
+          <t>262.73</t>
         </is>
       </c>
       <c r="E102" s="0" t="inlineStr">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="D107" s="0" t="inlineStr">
         <is>
-          <t>9280.9799999999996</t>
+          <t>9280.98</t>
         </is>
       </c>
       <c r="E107" s="0" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="D109" s="0" t="inlineStr">
         <is>
-          <t>99.790000000000006</t>
+          <t>99.79</t>
         </is>
       </c>
       <c r="E109" s="0" t="inlineStr">
@@ -3331,7 +3331,7 @@
       </c>
       <c r="D110" s="0" t="inlineStr">
         <is>
-          <t>70.769999999999996</t>
+          <t>70.77</t>
         </is>
       </c>
       <c r="E110" s="0" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="D112" s="0" t="inlineStr">
         <is>
-          <t>56939.519999999997</t>
+          <t>56939.52</t>
         </is>
       </c>
       <c r="E112" s="0" t="inlineStr">
@@ -3412,7 +3412,7 @@
       </c>
       <c r="D113" s="0" t="inlineStr">
         <is>
-          <t>64931.730000000003</t>
+          <t>64931.73</t>
         </is>
       </c>
       <c r="E113" s="0" t="inlineStr">
@@ -3439,7 +3439,7 @@
       </c>
       <c r="D114" s="0" t="inlineStr">
         <is>
-          <t>4182.3000000000002</t>
+          <t>4182.3</t>
         </is>
       </c>
       <c r="E114" s="0" t="inlineStr">
@@ -3493,7 +3493,7 @@
       </c>
       <c r="D116" s="0" t="inlineStr">
         <is>
-          <t>968888.22999999998</t>
+          <t>968888.23</t>
         </is>
       </c>
       <c r="E116" s="0" t="inlineStr">
@@ -3655,7 +3655,7 @@
       </c>
       <c r="D122" s="0" t="inlineStr">
         <is>
-          <t>4246.1999999999998</t>
+          <t>4246.2</t>
         </is>
       </c>
       <c r="E122" s="0" t="inlineStr">
@@ -3952,7 +3952,7 @@
       </c>
       <c r="D133" s="0" t="inlineStr">
         <is>
-          <t>129.24000000000001</t>
+          <t>129.24</t>
         </is>
       </c>
       <c r="E133" s="0" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="D138" s="0" t="inlineStr">
         <is>
-          <t>4846.3599999999997</t>
+          <t>4846.36</t>
         </is>
       </c>
       <c r="E138" s="0" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="D144" s="0" t="inlineStr">
         <is>
-          <t>57.149999999999999</t>
+          <t>57.15</t>
         </is>
       </c>
       <c r="E144" s="0" t="inlineStr">
@@ -4303,7 +4303,7 @@
       </c>
       <c r="D146" s="0" t="inlineStr">
         <is>
-          <t>2234.3400000000001</t>
+          <t>2234.34</t>
         </is>
       </c>
       <c r="E146" s="0" t="inlineStr">
@@ -4546,7 +4546,7 @@
       </c>
       <c r="D155" s="0" t="inlineStr">
         <is>
-          <t>5976583.1100000003</t>
+          <t>5976583.11</t>
         </is>
       </c>
       <c r="E155" s="0" t="inlineStr">
@@ -4573,7 +4573,7 @@
       </c>
       <c r="D156" s="0" t="inlineStr">
         <is>
-          <t>4692362.1600000001</t>
+          <t>4692362.16</t>
         </is>
       </c>
       <c r="E156" s="0" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="D157" s="0" t="inlineStr">
         <is>
-          <t>65212.300000000003</t>
+          <t>65212.3</t>
         </is>
       </c>
       <c r="E157" s="0" t="inlineStr">
@@ -4627,7 +4627,7 @@
       </c>
       <c r="D158" s="0" t="inlineStr">
         <is>
-          <t>642779.84999999998</t>
+          <t>642779.85</t>
         </is>
       </c>
       <c r="E158" s="0" t="inlineStr">
@@ -4654,7 +4654,7 @@
       </c>
       <c r="D159" s="0" t="inlineStr">
         <is>
-          <t>2978.4099999999999</t>
+          <t>2978.41</t>
         </is>
       </c>
       <c r="E159" s="0" t="inlineStr">
@@ -4708,7 +4708,7 @@
       </c>
       <c r="D161" s="0" t="inlineStr">
         <is>
-          <t>3375.4299999999998</t>
+          <t>3375.43</t>
         </is>
       </c>
       <c r="E161" s="0" t="inlineStr">
@@ -4735,7 +4735,7 @@
       </c>
       <c r="D162" s="0" t="inlineStr">
         <is>
-          <t>211086.35999999999</t>
+          <t>211086.36</t>
         </is>
       </c>
       <c r="E162" s="0" t="inlineStr">
@@ -4789,7 +4789,7 @@
       </c>
       <c r="D164" s="0" t="inlineStr">
         <is>
-          <t>987751.45999999996</t>
+          <t>987751.46</t>
         </is>
       </c>
       <c r="E164" s="0" t="inlineStr">
@@ -4816,7 +4816,7 @@
       </c>
       <c r="D165" s="0" t="inlineStr">
         <is>
-          <t>23986.759999999998</t>
+          <t>23986.76</t>
         </is>
       </c>
       <c r="E165" s="0" t="inlineStr">
@@ -4843,7 +4843,7 @@
       </c>
       <c r="D166" s="0" t="inlineStr">
         <is>
-          <t>4454011.6399999997</t>
+          <t>4454011.64</t>
         </is>
       </c>
       <c r="E166" s="0" t="inlineStr">
@@ -4951,7 +4951,7 @@
       </c>
       <c r="D170" s="0" t="inlineStr">
         <is>
-          <t>10839.450000000001</t>
+          <t>10839.45</t>
         </is>
       </c>
       <c r="E170" s="0" t="inlineStr">
@@ -5005,7 +5005,7 @@
       </c>
       <c r="D172" s="0" t="inlineStr">
         <is>
-          <t>338228.91999999998</t>
+          <t>338228.92</t>
         </is>
       </c>
       <c r="E172" s="0" t="inlineStr">
@@ -5059,7 +5059,7 @@
       </c>
       <c r="D174" s="0" t="inlineStr">
         <is>
-          <t>28070.169999999998</t>
+          <t>28070.17</t>
         </is>
       </c>
       <c r="E174" s="0" t="inlineStr">
@@ -5194,7 +5194,7 @@
       </c>
       <c r="D179" s="0" t="inlineStr">
         <is>
-          <t>337324.57000000001</t>
+          <t>337324.57</t>
         </is>
       </c>
       <c r="E179" s="0" t="inlineStr">
@@ -5248,7 +5248,7 @@
       </c>
       <c r="D181" s="0" t="inlineStr">
         <is>
-          <t>14590.040000000001</t>
+          <t>14590.04</t>
         </is>
       </c>
       <c r="E181" s="0" t="inlineStr">
@@ -5275,7 +5275,7 @@
       </c>
       <c r="D182" s="0" t="inlineStr">
         <is>
-          <t>738713.16000000003</t>
+          <t>738713.16</t>
         </is>
       </c>
       <c r="E182" s="0" t="inlineStr">
@@ -5302,7 +5302,7 @@
       </c>
       <c r="D183" s="0" t="inlineStr">
         <is>
-          <t>31357.080000000002</t>
+          <t>31357.08</t>
         </is>
       </c>
       <c r="E183" s="0" t="inlineStr">
@@ -5329,7 +5329,7 @@
       </c>
       <c r="D184" s="0" t="inlineStr">
         <is>
-          <t>38153.059999999998</t>
+          <t>38153.06</t>
         </is>
       </c>
       <c r="E184" s="0" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="D185" s="0" t="inlineStr">
         <is>
-          <t>13596.549999999999</t>
+          <t>13596.55</t>
         </is>
       </c>
       <c r="E185" s="0" t="inlineStr">
@@ -5383,7 +5383,7 @@
       </c>
       <c r="D186" s="0" t="inlineStr">
         <is>
-          <t>114122.89999999999</t>
+          <t>114122.9</t>
         </is>
       </c>
       <c r="E186" s="0" t="inlineStr">
@@ -5410,7 +5410,7 @@
       </c>
       <c r="D187" s="0" t="inlineStr">
         <is>
-          <t>16625.779999999999</t>
+          <t>16625.78</t>
         </is>
       </c>
       <c r="E187" s="0" t="inlineStr">
@@ -5437,7 +5437,7 @@
       </c>
       <c r="D188" s="0" t="inlineStr">
         <is>
-          <t>49394.669999999998</t>
+          <t>49394.67</t>
         </is>
       </c>
       <c r="E188" s="0" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="D189" s="0" t="inlineStr">
         <is>
-          <t>19213.150000000001</t>
+          <t>19213.15</t>
         </is>
       </c>
       <c r="E189" s="0" t="inlineStr">
@@ -5491,7 +5491,7 @@
       </c>
       <c r="D190" s="0" t="inlineStr">
         <is>
-          <t>935.26999999999998</t>
+          <t>935.27</t>
         </is>
       </c>
       <c r="E190" s="0" t="inlineStr">
@@ -5518,7 +5518,7 @@
       </c>
       <c r="D191" s="0" t="inlineStr">
         <is>
-          <t>581225.14000000001</t>
+          <t>581225.14</t>
         </is>
       </c>
       <c r="E191" s="0" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="D192" s="0" t="inlineStr">
         <is>
-          <t>631117.79000000004</t>
+          <t>631117.79</t>
         </is>
       </c>
       <c r="E192" s="0" t="inlineStr">
@@ -5680,7 +5680,7 @@
       </c>
       <c r="D197" s="0" t="inlineStr">
         <is>
-          <t>76266.710000000006</t>
+          <t>76266.71</t>
         </is>
       </c>
       <c r="E197" s="0" t="inlineStr">
@@ -5707,7 +5707,7 @@
       </c>
       <c r="D198" s="0" t="inlineStr">
         <is>
-          <t>76225.160000000003</t>
+          <t>76225.16</t>
         </is>
       </c>
       <c r="E198" s="0" t="inlineStr">
@@ -5788,7 +5788,7 @@
       </c>
       <c r="D201" s="0" t="inlineStr">
         <is>
-          <t>2192.5900000000001</t>
+          <t>2192.59</t>
         </is>
       </c>
       <c r="E201" s="0" t="inlineStr">
@@ -5869,7 +5869,7 @@
       </c>
       <c r="D204" s="0" t="inlineStr">
         <is>
-          <t>455891.51000000001</t>
+          <t>455891.51</t>
         </is>
       </c>
       <c r="E204" s="0" t="inlineStr">
@@ -5923,7 +5923,7 @@
       </c>
       <c r="D206" s="0" t="inlineStr">
         <is>
-          <t>1608.6800000000001</t>
+          <t>1608.68</t>
         </is>
       </c>
       <c r="E206" s="0" t="inlineStr">
@@ -6058,7 +6058,7 @@
       </c>
       <c r="D211" s="0" t="inlineStr">
         <is>
-          <t>29081.150000000001</t>
+          <t>29081.15</t>
         </is>
       </c>
       <c r="E211" s="0" t="inlineStr">
@@ -6193,7 +6193,7 @@
       </c>
       <c r="D216" s="0" t="inlineStr">
         <is>
-          <t>92487.220000000001</t>
+          <t>92487.22</t>
         </is>
       </c>
       <c r="E216" s="0" t="inlineStr">
@@ -6220,7 +6220,7 @@
       </c>
       <c r="D217" s="0" t="inlineStr">
         <is>
-          <t>41812.959999999999</t>
+          <t>41812.96</t>
         </is>
       </c>
       <c r="E217" s="0" t="inlineStr">
@@ -6247,7 +6247,7 @@
       </c>
       <c r="D218" s="0" t="inlineStr">
         <is>
-          <t>36393.730000000003</t>
+          <t>36393.73</t>
         </is>
       </c>
       <c r="E218" s="0" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="D224" s="0" t="inlineStr">
         <is>
-          <t>504.79000000000002</t>
+          <t>504.79</t>
         </is>
       </c>
       <c r="E224" s="0" t="inlineStr">
@@ -6463,7 +6463,7 @@
       </c>
       <c r="D226" s="0" t="inlineStr">
         <is>
-          <t>51.380000000000003</t>
+          <t>51.38</t>
         </is>
       </c>
       <c r="E226" s="0" t="inlineStr">
@@ -6544,7 +6544,7 @@
       </c>
       <c r="D229" s="0" t="inlineStr">
         <is>
-          <t>13235.309999999999</t>
+          <t>13235.31</t>
         </is>
       </c>
       <c r="E229" s="0" t="inlineStr">
@@ -6571,7 +6571,7 @@
       </c>
       <c r="D230" s="0" t="inlineStr">
         <is>
-          <t>7397.1499999999996</t>
+          <t>7397.15</t>
         </is>
       </c>
       <c r="E230" s="0" t="inlineStr">
@@ -6625,7 +6625,7 @@
       </c>
       <c r="D232" s="0" t="inlineStr">
         <is>
-          <t>7774.4700000000003</t>
+          <t>7774.47</t>
         </is>
       </c>
       <c r="E232" s="0" t="inlineStr">
@@ -6652,7 +6652,7 @@
       </c>
       <c r="D233" s="0" t="inlineStr">
         <is>
-          <t>3003.1700000000001</t>
+          <t>3003.17</t>
         </is>
       </c>
       <c r="E233" s="0" t="inlineStr">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="D234" s="0" t="inlineStr">
         <is>
-          <t>73204.539999999994</t>
+          <t>73204.54</t>
         </is>
       </c>
       <c r="E234" s="0" t="inlineStr">
@@ -6706,7 +6706,7 @@
       </c>
       <c r="D235" s="0" t="inlineStr">
         <is>
-          <t>4645345.7000000002</t>
+          <t>4645345.7</t>
         </is>
       </c>
       <c r="E235" s="0" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="D237" s="0" t="inlineStr">
         <is>
-          <t>30697.139999999999</t>
+          <t>30697.14</t>
         </is>
       </c>
       <c r="E237" s="0" t="inlineStr">
@@ -6814,7 +6814,7 @@
       </c>
       <c r="D239" s="0" t="inlineStr">
         <is>
-          <t>30142.400000000001</t>
+          <t>30142.4</t>
         </is>
       </c>
       <c r="E239" s="0" t="inlineStr">
@@ -6895,7 +6895,7 @@
       </c>
       <c r="D242" s="0" t="inlineStr">
         <is>
-          <t>5410.4799999999996</t>
+          <t>5410.48</t>
         </is>
       </c>
       <c r="E242" s="0" t="inlineStr">
@@ -6949,7 +6949,7 @@
       </c>
       <c r="D244" s="0" t="inlineStr">
         <is>
-          <t>12677.459999999999</t>
+          <t>12677.46</t>
         </is>
       </c>
       <c r="E244" s="0" t="inlineStr">
@@ -6976,7 +6976,7 @@
       </c>
       <c r="D245" s="0" t="inlineStr">
         <is>
-          <t>2735.4400000000001</t>
+          <t>2735.44</t>
         </is>
       </c>
       <c r="E245" s="0" t="inlineStr">
@@ -7030,7 +7030,7 @@
       </c>
       <c r="D247" s="0" t="inlineStr">
         <is>
-          <t>695.57000000000005</t>
+          <t>695.57</t>
         </is>
       </c>
       <c r="E247" s="0" t="inlineStr">
@@ -7057,7 +7057,7 @@
       </c>
       <c r="D248" s="0" t="inlineStr">
         <is>
-          <t>23615.599999999999</t>
+          <t>23615.6</t>
         </is>
       </c>
       <c r="E248" s="0" t="inlineStr">
@@ -7138,7 +7138,7 @@
       </c>
       <c r="D251" s="0" t="inlineStr">
         <is>
-          <t>821.99000000000001</t>
+          <t>821.99</t>
         </is>
       </c>
       <c r="E251" s="0" t="inlineStr">
@@ -7165,7 +7165,7 @@
       </c>
       <c r="D252" s="0" t="inlineStr">
         <is>
-          <t>27279.700000000001</t>
+          <t>27279.7</t>
         </is>
       </c>
       <c r="E252" s="0" t="inlineStr">
@@ -7219,7 +7219,7 @@
       </c>
       <c r="D254" s="0" t="inlineStr">
         <is>
-          <t>3204.4400000000001</t>
+          <t>3204.44</t>
         </is>
       </c>
       <c r="E254" s="0" t="inlineStr">
@@ -7246,7 +7246,7 @@
       </c>
       <c r="D255" s="0" t="inlineStr">
         <is>
-          <t>202.19999999999999</t>
+          <t>202.2</t>
         </is>
       </c>
       <c r="E255" s="0" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="D256" s="0" t="inlineStr">
         <is>
-          <t>10566.809999999999</t>
+          <t>10566.81</t>
         </is>
       </c>
       <c r="E256" s="0" t="inlineStr">
@@ -7300,7 +7300,7 @@
       </c>
       <c r="D257" s="0" t="inlineStr">
         <is>
-          <t>50317.489999999998</t>
+          <t>50317.49</t>
         </is>
       </c>
       <c r="E257" s="0" t="inlineStr">
@@ -7327,7 +7327,7 @@
       </c>
       <c r="D258" s="0" t="inlineStr">
         <is>
-          <t>3933.3699999999999</t>
+          <t>3933.37</t>
         </is>
       </c>
       <c r="E258" s="0" t="inlineStr">
@@ -7408,7 +7408,7 @@
       </c>
       <c r="D261" s="0" t="inlineStr">
         <is>
-          <t>1850.1300000000001</t>
+          <t>1850.13</t>
         </is>
       </c>
       <c r="E261" s="0" t="inlineStr">
@@ -7462,7 +7462,7 @@
       </c>
       <c r="D263" s="0" t="inlineStr">
         <is>
-          <t>2062.4400000000001</t>
+          <t>2062.44</t>
         </is>
       </c>
       <c r="E263" s="0" t="inlineStr">
@@ -7516,7 +7516,7 @@
       </c>
       <c r="D265" s="0" t="inlineStr">
         <is>
-          <t>453.47000000000003</t>
+          <t>453.47</t>
         </is>
       </c>
       <c r="E265" s="0" t="inlineStr">
@@ -7543,7 +7543,7 @@
       </c>
       <c r="D266" s="0" t="inlineStr">
         <is>
-          <t>7391.6000000000004</t>
+          <t>7391.6</t>
         </is>
       </c>
       <c r="E266" s="0" t="inlineStr">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="D268" s="0" t="inlineStr">
         <is>
-          <t>509.64999999999998</t>
+          <t>509.65</t>
         </is>
       </c>
       <c r="E268" s="0" t="inlineStr">
@@ -7786,7 +7786,7 @@
       </c>
       <c r="D275" s="0" t="inlineStr">
         <is>
-          <t>1969.9200000000001</t>
+          <t>1969.92</t>
         </is>
       </c>
       <c r="E275" s="0" t="inlineStr">
@@ -7813,7 +7813,7 @@
       </c>
       <c r="D276" s="0" t="inlineStr">
         <is>
-          <t>2153.8899999999999</t>
+          <t>2153.89</t>
         </is>
       </c>
       <c r="E276" s="0" t="inlineStr">
@@ -7948,7 +7948,7 @@
       </c>
       <c r="D281" s="0" t="inlineStr">
         <is>
-          <t>3892.3499999999999</t>
+          <t>3892.35</t>
         </is>
       </c>
       <c r="E281" s="0" t="inlineStr">
@@ -8002,7 +8002,7 @@
       </c>
       <c r="D283" s="0" t="inlineStr">
         <is>
-          <t>4061.1100000000001</t>
+          <t>4061.11</t>
         </is>
       </c>
       <c r="E283" s="0" t="inlineStr">
@@ -8029,7 +8029,7 @@
       </c>
       <c r="D284" s="0" t="inlineStr">
         <is>
-          <t>2731383.8799999999</t>
+          <t>2731383.88</t>
         </is>
       </c>
       <c r="E284" s="0" t="inlineStr">
@@ -8299,7 +8299,7 @@
       </c>
       <c r="D294" s="0" t="inlineStr">
         <is>
-          <t>830.75999999999999</t>
+          <t>830.76</t>
         </is>
       </c>
       <c r="E294" s="0" t="inlineStr">
@@ -8326,7 +8326,7 @@
       </c>
       <c r="D295" s="0" t="inlineStr">
         <is>
-          <t>37076.410000000003</t>
+          <t>37076.41</t>
         </is>
       </c>
       <c r="E295" s="0" t="inlineStr">
@@ -8380,7 +8380,7 @@
       </c>
       <c r="D297" s="0" t="inlineStr">
         <is>
-          <t>520465.92999999999</t>
+          <t>520465.93</t>
         </is>
       </c>
       <c r="E297" s="0" t="inlineStr">
@@ -8407,7 +8407,7 @@
       </c>
       <c r="D298" s="0" t="inlineStr">
         <is>
-          <t>23263.380000000001</t>
+          <t>23263.38</t>
         </is>
       </c>
       <c r="E298" s="0" t="inlineStr">
@@ -8434,7 +8434,7 @@
       </c>
       <c r="D299" s="0" t="inlineStr">
         <is>
-          <t>26787.459999999999</t>
+          <t>26787.46</t>
         </is>
       </c>
       <c r="E299" s="0" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="D301" s="0" t="inlineStr">
         <is>
-          <t>8664.4099999999999</t>
+          <t>8664.41</t>
         </is>
       </c>
       <c r="E301" s="0" t="inlineStr">
@@ -8731,7 +8731,7 @@
       </c>
       <c r="D310" s="0" t="inlineStr">
         <is>
-          <t>29981.099999999999</t>
+          <t>29981.1</t>
         </is>
       </c>
       <c r="E310" s="0" t="inlineStr">
@@ -8839,7 +8839,7 @@
       </c>
       <c r="D314" s="0" t="inlineStr">
         <is>
-          <t>707.70000000000005</t>
+          <t>707.7</t>
         </is>
       </c>
       <c r="E314" s="0" t="inlineStr">
@@ -9028,7 +9028,7 @@
       </c>
       <c r="D321" s="0" t="inlineStr">
         <is>
-          <t>2931.9000000000001</t>
+          <t>2931.9</t>
         </is>
       </c>
       <c r="E321" s="0" t="inlineStr">
@@ -9109,7 +9109,7 @@
       </c>
       <c r="D324" s="0" t="inlineStr">
         <is>
-          <t>5926.0799999999999</t>
+          <t>5926.08</t>
         </is>
       </c>
       <c r="E324" s="0" t="inlineStr">
@@ -9379,7 +9379,7 @@
       </c>
       <c r="D334" s="0" t="inlineStr">
         <is>
-          <t>1551.8900000000001</t>
+          <t>1551.89</t>
         </is>
       </c>
       <c r="E334" s="0" t="inlineStr">
@@ -9487,7 +9487,7 @@
       </c>
       <c r="D338" s="0" t="inlineStr">
         <is>
-          <t>5154.0699999999997</t>
+          <t>5154.07</t>
         </is>
       </c>
       <c r="E338" s="0" t="inlineStr">
@@ -9919,7 +9919,7 @@
       </c>
       <c r="D354" s="0" t="inlineStr">
         <is>
-          <t>751.11000000000001</t>
+          <t>751.11</t>
         </is>
       </c>
       <c r="E354" s="0" t="inlineStr">
@@ -10162,7 +10162,7 @@
       </c>
       <c r="D363" s="0" t="inlineStr">
         <is>
-          <t>5412.1400000000003</t>
+          <t>5412.14</t>
         </is>
       </c>
       <c r="E363" s="0" t="inlineStr">
@@ -10270,7 +10270,7 @@
       </c>
       <c r="D367" s="0" t="inlineStr">
         <is>
-          <t>5303.6000000000004</t>
+          <t>5303.6</t>
         </is>
       </c>
       <c r="E367" s="0" t="inlineStr">
@@ -10351,7 +10351,7 @@
       </c>
       <c r="D370" s="0" t="inlineStr">
         <is>
-          <t>20764.330000000002</t>
+          <t>20764.33</t>
         </is>
       </c>
       <c r="E370" s="0" t="inlineStr">
@@ -10405,7 +10405,7 @@
       </c>
       <c r="D372" s="0" t="inlineStr">
         <is>
-          <t>4611.1700000000001</t>
+          <t>4611.17</t>
         </is>
       </c>
       <c r="E372" s="0" t="inlineStr">
@@ -10432,7 +10432,7 @@
       </c>
       <c r="D373" s="0" t="inlineStr">
         <is>
-          <t>20217.599999999999</t>
+          <t>20217.6</t>
         </is>
       </c>
       <c r="E373" s="0" t="inlineStr">
@@ -10864,7 +10864,7 @@
       </c>
       <c r="D389" s="0" t="inlineStr">
         <is>
-          <t>1106.6099999999999</t>
+          <t>1106.61</t>
         </is>
       </c>
       <c r="E389" s="0" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="D397" s="0" t="inlineStr">
         <is>
-          <t>276.55000000000001</t>
+          <t>276.55</t>
         </is>
       </c>
       <c r="E397" s="0" t="inlineStr">
@@ -11107,7 +11107,7 @@
       </c>
       <c r="D398" s="0" t="inlineStr">
         <is>
-          <t>543.41999999999996</t>
+          <t>543.42</t>
         </is>
       </c>
       <c r="E398" s="0" t="inlineStr">
@@ -11134,7 +11134,7 @@
       </c>
       <c r="D399" s="0" t="inlineStr">
         <is>
-          <t>707.70000000000005</t>
+          <t>707.7</t>
         </is>
       </c>
       <c r="E399" s="0" t="inlineStr">
@@ -11188,7 +11188,7 @@
       </c>
       <c r="D401" s="0" t="inlineStr">
         <is>
-          <t>630.58000000000004</t>
+          <t>630.58</t>
         </is>
       </c>
       <c r="E401" s="0" t="inlineStr">
@@ -11215,7 +11215,7 @@
       </c>
       <c r="D402" s="0" t="inlineStr">
         <is>
-          <t>807.51999999999998</t>
+          <t>807.52</t>
         </is>
       </c>
       <c r="E402" s="0" t="inlineStr">
@@ -11755,7 +11755,7 @@
       </c>
       <c r="D422" s="0" t="inlineStr">
         <is>
-          <t>14765.860000000001</t>
+          <t>14765.86</t>
         </is>
       </c>
       <c r="E422" s="0" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="D445" s="0" t="inlineStr">
         <is>
-          <t>313.97000000000003</t>
+          <t>313.97</t>
         </is>
       </c>
       <c r="E445" s="0" t="inlineStr">
@@ -12403,7 +12403,7 @@
       </c>
       <c r="D446" s="0" t="inlineStr">
         <is>
-          <t>0.48999999999999999</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E446" s="0" t="inlineStr">
@@ -12430,7 +12430,7 @@
       </c>
       <c r="D447" s="0" t="inlineStr">
         <is>
-          <t>0.48999999999999999</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E447" s="0" t="inlineStr">
@@ -13132,7 +13132,7 @@
       </c>
       <c r="D473" s="0" t="inlineStr">
         <is>
-          <t>1126.8199999999999</t>
+          <t>1126.82</t>
         </is>
       </c>
       <c r="E473" s="0" t="inlineStr">
@@ -13213,7 +13213,7 @@
       </c>
       <c r="D476" s="0" t="inlineStr">
         <is>
-          <t>707.70000000000005</t>
+          <t>707.7</t>
         </is>
       </c>
       <c r="E476" s="0" t="inlineStr">
@@ -13240,7 +13240,7 @@
       </c>
       <c r="D477" s="0" t="inlineStr">
         <is>
-          <t>4635.1800000000003</t>
+          <t>4635.18</t>
         </is>
       </c>
       <c r="E477" s="0" t="inlineStr">
@@ -13375,7 +13375,7 @@
       </c>
       <c r="D482" s="0" t="inlineStr">
         <is>
-          <t>1077.8599999999999</t>
+          <t>1077.86</t>
         </is>
       </c>
       <c r="E482" s="0" t="inlineStr">
@@ -13402,7 +13402,7 @@
       </c>
       <c r="D483" s="0" t="inlineStr">
         <is>
-          <t>1761.1600000000001</t>
+          <t>1761.16</t>
         </is>
       </c>
       <c r="E483" s="0" t="inlineStr">
@@ -13699,7 +13699,7 @@
       </c>
       <c r="D494" s="0" t="inlineStr">
         <is>
-          <t>648.45000000000005</t>
+          <t>648.45</t>
         </is>
       </c>
       <c r="E494" s="0" t="inlineStr">
@@ -14023,7 +14023,7 @@
       </c>
       <c r="D506" s="0" t="inlineStr">
         <is>
-          <t>95799.080000000002</t>
+          <t>95799.08</t>
         </is>
       </c>
       <c r="E506" s="0" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="D509" s="0" t="inlineStr">
         <is>
-          <t>2436.4099999999999</t>
+          <t>2436.41</t>
         </is>
       </c>
       <c r="E509" s="0" t="inlineStr">
@@ -14239,7 +14239,7 @@
       </c>
       <c r="D514" s="0" t="inlineStr">
         <is>
-          <t>383.29000000000002</t>
+          <t>383.29</t>
         </is>
       </c>
       <c r="E514" s="0" t="inlineStr">
@@ -14320,7 +14320,7 @@
       </c>
       <c r="D517" s="0" t="inlineStr">
         <is>
-          <t>291.10000000000002</t>
+          <t>291.1</t>
         </is>
       </c>
       <c r="E517" s="0" t="inlineStr">
@@ -14509,7 +14509,7 @@
       </c>
       <c r="D524" s="0" t="inlineStr">
         <is>
-          <t>1923.1099999999999</t>
+          <t>1923.11</t>
         </is>
       </c>
       <c r="E524" s="0" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="D525" s="0" t="inlineStr">
         <is>
-          <t>1986.1400000000001</t>
+          <t>1986.14</t>
         </is>
       </c>
       <c r="E525" s="0" t="inlineStr">
@@ -14563,7 +14563,7 @@
       </c>
       <c r="D526" s="0" t="inlineStr">
         <is>
-          <t>456.43000000000001</t>
+          <t>456.43</t>
         </is>
       </c>
       <c r="E526" s="0" t="inlineStr">
@@ -14617,7 +14617,7 @@
       </c>
       <c r="D528" s="0" t="inlineStr">
         <is>
-          <t>1174.0899999999999</t>
+          <t>1174.09</t>
         </is>
       </c>
       <c r="E528" s="0" t="inlineStr">
@@ -14644,7 +14644,7 @@
       </c>
       <c r="D529" s="0" t="inlineStr">
         <is>
-          <t>743.99000000000001</t>
+          <t>743.99</t>
         </is>
       </c>
       <c r="E529" s="0" t="inlineStr">
@@ -14752,7 +14752,7 @@
       </c>
       <c r="D533" s="0" t="inlineStr">
         <is>
-          <t>454.94999999999999</t>
+          <t>454.95</t>
         </is>
       </c>
       <c r="E533" s="0" t="inlineStr">
@@ -15265,7 +15265,7 @@
       </c>
       <c r="D552" s="0" t="inlineStr">
         <is>
-          <t>45932.019999999997</t>
+          <t>45932.02</t>
         </is>
       </c>
       <c r="E552" s="0" t="inlineStr">
@@ -16021,7 +16021,7 @@
       </c>
       <c r="D580" s="0" t="inlineStr">
         <is>
-          <t>4910.4899999999998</t>
+          <t>4910.49</t>
         </is>
       </c>
       <c r="E580" s="0" t="inlineStr">
@@ -17155,7 +17155,7 @@
       </c>
       <c r="D622" s="0" t="inlineStr">
         <is>
-          <t>17722.830000000002</t>
+          <t>17722.83</t>
         </is>
       </c>
       <c r="E622" s="0" t="inlineStr">
@@ -17992,7 +17992,7 @@
       </c>
       <c r="D653" s="0" t="inlineStr">
         <is>
-          <t>374.69999999999999</t>
+          <t>374.7</t>
         </is>
       </c>
       <c r="E653" s="0" t="inlineStr">
@@ -18019,7 +18019,7 @@
       </c>
       <c r="D654" s="0" t="inlineStr">
         <is>
-          <t>174.27000000000001</t>
+          <t>174.27</t>
         </is>
       </c>
       <c r="E654" s="0" t="inlineStr">
@@ -19099,7 +19099,7 @@
       </c>
       <c r="D694" s="0" t="inlineStr">
         <is>
-          <t>3967.7199999999998</t>
+          <t>3967.72</t>
         </is>
       </c>
       <c r="E694" s="0" t="inlineStr">
@@ -19153,7 +19153,7 @@
       </c>
       <c r="D696" s="0" t="inlineStr">
         <is>
-          <t>1062.6900000000001</t>
+          <t>1062.69</t>
         </is>
       </c>
       <c r="E696" s="0" t="inlineStr">
@@ -19180,7 +19180,7 @@
       </c>
       <c r="D697" s="0" t="inlineStr">
         <is>
-          <t>527.66999999999996</t>
+          <t>527.67</t>
         </is>
       </c>
       <c r="E697" s="0" t="inlineStr">
@@ -19234,7 +19234,7 @@
       </c>
       <c r="D699" s="0" t="inlineStr">
         <is>
-          <t>1081.3299999999999</t>
+          <t>1081.33</t>
         </is>
       </c>
       <c r="E699" s="0" t="inlineStr">
@@ -19342,7 +19342,7 @@
       </c>
       <c r="D703" s="0" t="inlineStr">
         <is>
-          <t>920.00999999999999</t>
+          <t>920.01</t>
         </is>
       </c>
       <c r="E703" s="0" t="inlineStr">
